--- a/results/leaf.demo_field.data_2.26.19.xlsx
+++ b/results/leaf.demo_field.data_2.26.19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="32380" yWindow="1520" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>PRG_6457.JPG</t>
   </si>
   <si>
-    <t>PRG_6508.JPG</t>
-  </si>
-  <si>
     <t>manual.pust.ct.CR</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>median rater crown rust severity score (n = 9)</t>
+  </si>
+  <si>
+    <t>PRG_6594.JPG</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,34 +472,34 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -516,16 +516,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>42</v>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>104</v>
@@ -579,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
